--- a/Reference/BackTrade_OOAD_v2.xlsx
+++ b/Reference/BackTrade_OOAD_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9abbcc666f3bf995/Documents/MATLAB_Projects/BackTradeModule_Project/Reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1385" documentId="8_{7B4FDFB5-3A2C-4B19-9B88-90AC2C8FA902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAE368E5-CC99-4C73-92B9-5D709161DC4A}"/>
+  <xr:revisionPtr revIDLastSave="1387" documentId="8_{7B4FDFB5-3A2C-4B19-9B88-90AC2C8FA902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD4C7FA3-7921-4255-A694-3FD8AC6CBFE0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="3" xr2:uid="{792D303F-5F92-4324-AC50-FF783A8CD29E}"/>
+    <workbookView xWindow="17265" yWindow="90" windowWidth="11490" windowHeight="15600" firstSheet="2" activeTab="3" xr2:uid="{792D303F-5F92-4324-AC50-FF783A8CD29E}"/>
   </bookViews>
   <sheets>
     <sheet name="Use Case v2" sheetId="7" state="hidden" r:id="rId1"/>
@@ -236,9 +236,6 @@
     <t>Load setup</t>
   </si>
   <si>
-    <t>WalkForwardTradeStrategy class</t>
-  </si>
-  <si>
     <t>evaluatePerformance&lt;&lt; performanceEvaluator class</t>
   </si>
   <si>
@@ -446,9 +443,6 @@
     <t>nStepTest</t>
   </si>
   <si>
-    <t>nDaysDataset</t>
-  </si>
-  <si>
     <t>nWalks</t>
   </si>
   <si>
@@ -522,6 +516,12 @@
   </si>
   <si>
     <t>netDailyRetBySymbol</t>
+  </si>
+  <si>
+    <t>WalkForwardTestStrategy class</t>
+  </si>
+  <si>
+    <t>nDayDataset</t>
   </si>
 </sst>
 </file>
@@ -2364,7 +2364,7 @@
       <c r="P1" s="11"/>
       <c r="Q1" s="11"/>
       <c r="R1" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2388,7 +2388,7 @@
       <c r="P2" s="11"/>
       <c r="Q2" s="11"/>
       <c r="R2" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
@@ -2410,7 +2410,7 @@
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
       <c r="R3" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -2436,7 +2436,7 @@
       <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
       <c r="R4" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
@@ -2445,7 +2445,7 @@
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
       <c r="R5" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -2471,7 +2471,7 @@
       <c r="P6" s="11"/>
       <c r="Q6" s="11"/>
       <c r="R6" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -2499,7 +2499,7 @@
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
       <c r="R7" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -2517,7 +2517,7 @@
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
@@ -2528,7 +2528,7 @@
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
       <c r="R8" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -2557,7 +2557,7 @@
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
       <c r="R9" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -2586,7 +2586,7 @@
       <c r="P10" s="11"/>
       <c r="Q10" s="11"/>
       <c r="R10" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -2615,7 +2615,7 @@
       <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
       <c r="R11" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -2644,7 +2644,7 @@
       <c r="P12" s="11"/>
       <c r="Q12" s="11"/>
       <c r="R12" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -2671,7 +2671,7 @@
       <c r="P13" s="11"/>
       <c r="Q13" s="11"/>
       <c r="R13" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
@@ -2693,7 +2693,7 @@
       <c r="P14" s="11"/>
       <c r="Q14" s="11"/>
       <c r="R14" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -2715,7 +2715,7 @@
       <c r="P15" s="11"/>
       <c r="Q15" s="11"/>
       <c r="R15" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -2741,7 +2741,7 @@
       <c r="P16" s="11"/>
       <c r="Q16" s="11"/>
       <c r="R16" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
@@ -2767,7 +2767,7 @@
       <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
       <c r="R17" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
@@ -2795,7 +2795,7 @@
       <c r="P18" s="11"/>
       <c r="Q18" s="11"/>
       <c r="R18" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
@@ -2813,7 +2813,7 @@
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
@@ -2824,7 +2824,7 @@
       <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
       <c r="R19" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
@@ -2853,7 +2853,7 @@
       <c r="P20" s="11"/>
       <c r="Q20" s="11"/>
       <c r="R20" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
@@ -2882,7 +2882,7 @@
       <c r="P21" s="11"/>
       <c r="Q21" s="11"/>
       <c r="R21" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
@@ -2911,7 +2911,7 @@
       <c r="P22" s="11"/>
       <c r="Q22" s="11"/>
       <c r="R22" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
@@ -2940,7 +2940,7 @@
       <c r="P23" s="11"/>
       <c r="Q23" s="11"/>
       <c r="R23" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
@@ -2962,7 +2962,7 @@
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
       <c r="R24" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
@@ -2984,7 +2984,7 @@
       <c r="P25" s="11"/>
       <c r="Q25" s="11"/>
       <c r="R25" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
@@ -2993,7 +2993,7 @@
       </c>
       <c r="B26" s="11"/>
       <c r="C26" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -3010,7 +3010,7 @@
       <c r="P26" s="11"/>
       <c r="Q26" s="11"/>
       <c r="R26" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
@@ -3036,7 +3036,7 @@
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
       <c r="R27" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
@@ -3053,7 +3053,7 @@
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
       <c r="I28" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J28" s="11"/>
       <c r="K28" s="11"/>
@@ -3064,7 +3064,7 @@
       <c r="P28" s="11"/>
       <c r="Q28" s="11"/>
       <c r="R28" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
@@ -3082,7 +3082,7 @@
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
@@ -3093,7 +3093,7 @@
       <c r="P29" s="11"/>
       <c r="Q29" s="11"/>
       <c r="R29" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
@@ -3111,7 +3111,7 @@
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
       <c r="I30" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J30" s="11"/>
       <c r="K30" s="11"/>
@@ -3122,7 +3122,7 @@
       <c r="P30" s="11"/>
       <c r="Q30" s="11"/>
       <c r="R30" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
@@ -3140,7 +3140,7 @@
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
       <c r="I31" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J31" s="11"/>
       <c r="K31" s="11"/>
@@ -3151,7 +3151,7 @@
       <c r="P31" s="11"/>
       <c r="Q31" s="11"/>
       <c r="R31" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
@@ -3169,7 +3169,7 @@
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
       <c r="I32" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J32" s="11"/>
       <c r="K32" s="11"/>
@@ -3180,7 +3180,7 @@
       <c r="P32" s="11"/>
       <c r="Q32" s="11"/>
       <c r="R32" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
@@ -3198,7 +3198,7 @@
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
       <c r="I33" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J33" s="11"/>
       <c r="K33" s="11"/>
@@ -3209,7 +3209,7 @@
       <c r="P33" s="11"/>
       <c r="Q33" s="11"/>
       <c r="R33" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
@@ -3231,7 +3231,7 @@
       <c r="P34" s="11"/>
       <c r="Q34" s="11"/>
       <c r="R34" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
@@ -3253,7 +3253,7 @@
       <c r="P35" s="11"/>
       <c r="Q35" s="11"/>
       <c r="R35" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3275,7 +3275,7 @@
       <c r="P36" s="11"/>
       <c r="Q36" s="11"/>
       <c r="R36" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
@@ -3297,7 +3297,7 @@
       <c r="P37" s="11"/>
       <c r="Q37" s="11"/>
       <c r="R37" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
@@ -3319,63 +3319,63 @@
       <c r="P38" s="11"/>
       <c r="Q38" s="11"/>
       <c r="R38" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K39" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L39" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M39" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N39" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O39" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P39" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q39" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R39" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -3387,11 +3387,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDFDB00B-563A-40E3-B512-89F3B1077A83}">
   <dimension ref="A1:AQ146"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B102" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T141" sqref="T141"/>
+      <selection pane="bottomRight" activeCell="W23" sqref="W23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3401,14 +3401,14 @@
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C1">
         <f>COUNTA(B2:B145,L2:L146,V1:V145)</f>
         <v>18</v>
       </c>
       <c r="AQ1" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3455,12 +3455,12 @@
       <c r="AL2" s="4"/>
       <c r="AM2" s="4"/>
       <c r="AQ2" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:43" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AQ3" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
@@ -3488,7 +3488,7 @@
       <c r="R4" s="9"/>
       <c r="S4" s="10"/>
       <c r="V4" s="35" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="W4" s="36"/>
       <c r="X4" s="36"/>
@@ -3498,7 +3498,7 @@
       <c r="AB4" s="36"/>
       <c r="AC4" s="37"/>
       <c r="AF4" s="35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AG4" s="36"/>
       <c r="AH4" s="36"/>
@@ -3508,7 +3508,7 @@
       <c r="AL4" s="36"/>
       <c r="AM4" s="37"/>
       <c r="AQ4" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
@@ -3534,7 +3534,7 @@
       <c r="S5" s="24"/>
       <c r="V5" s="22"/>
       <c r="W5" s="23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X5" s="13"/>
       <c r="Y5" s="13"/>
@@ -3544,7 +3544,7 @@
       <c r="AC5" s="24"/>
       <c r="AF5" s="22"/>
       <c r="AG5" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AH5" s="13"/>
       <c r="AI5" s="13"/>
@@ -3553,13 +3553,13 @@
       <c r="AL5" s="13"/>
       <c r="AM5" s="24"/>
       <c r="AQ5" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="22"/>
       <c r="C6" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
@@ -3569,7 +3569,7 @@
       <c r="I6" s="24"/>
       <c r="L6" s="22"/>
       <c r="M6" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N6" s="13"/>
       <c r="O6" s="13"/>
@@ -3590,7 +3590,7 @@
       <c r="AC6" s="24"/>
       <c r="AF6" s="27"/>
       <c r="AG6" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AH6" s="18"/>
       <c r="AI6" s="18"/>
@@ -3599,13 +3599,13 @@
       <c r="AL6" s="18"/>
       <c r="AM6" s="28"/>
       <c r="AQ6" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B7" s="22"/>
       <c r="C7" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
@@ -3615,7 +3615,7 @@
       <c r="I7" s="24"/>
       <c r="L7" s="22"/>
       <c r="M7" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N7" s="13"/>
       <c r="O7" s="13"/>
@@ -3635,7 +3635,7 @@
       <c r="AB7" s="13"/>
       <c r="AC7" s="24"/>
       <c r="AQ7" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
@@ -3651,7 +3651,7 @@
       <c r="I8" s="24"/>
       <c r="L8" s="22"/>
       <c r="M8" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N8" s="13"/>
       <c r="O8" s="13"/>
@@ -3661,7 +3661,7 @@
       <c r="S8" s="24"/>
       <c r="V8" s="22"/>
       <c r="W8" s="12" t="str">
-        <f t="shared" ref="W8:W14" si="0">M124</f>
+        <f t="shared" ref="W8:W13" si="0">M124</f>
         <v>objectiveFcn</v>
       </c>
       <c r="X8" s="13"/>
@@ -3671,7 +3671,7 @@
       <c r="AB8" s="13"/>
       <c r="AC8" s="24"/>
       <c r="AQ8" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.25">
@@ -3685,7 +3685,7 @@
       <c r="I9" s="26"/>
       <c r="L9" s="22"/>
       <c r="M9" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N9" s="13"/>
       <c r="O9" s="13"/>
@@ -3705,7 +3705,7 @@
       <c r="AB9" s="13"/>
       <c r="AC9" s="24"/>
       <c r="AQ9" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.25">
@@ -3721,7 +3721,7 @@
       <c r="I10" s="24"/>
       <c r="L10" s="22"/>
       <c r="M10" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N10" s="13"/>
       <c r="O10" s="13"/>
@@ -3741,7 +3741,7 @@
       <c r="AB10" s="13"/>
       <c r="AC10" s="24"/>
       <c r="AQ10" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
@@ -3757,7 +3757,7 @@
       <c r="I11" s="24"/>
       <c r="L11" s="22"/>
       <c r="M11" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N11" s="13"/>
       <c r="O11" s="13"/>
@@ -3777,7 +3777,7 @@
       <c r="AB11" s="13"/>
       <c r="AC11" s="24"/>
       <c r="AQ11" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3811,7 +3811,7 @@
       <c r="AB12" s="13"/>
       <c r="AC12" s="24"/>
       <c r="AQ12" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3837,7 +3837,7 @@
       <c r="AB13" s="13"/>
       <c r="AC13" s="24"/>
       <c r="AQ13" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.25">
@@ -3852,7 +3852,7 @@
       <c r="H14" s="13"/>
       <c r="I14" s="24"/>
       <c r="L14" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
@@ -3870,7 +3870,7 @@
       <c r="AB14" s="13"/>
       <c r="AC14" s="24"/>
       <c r="AQ14" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3884,7 +3884,7 @@
       <c r="I15" s="28"/>
       <c r="L15" s="22"/>
       <c r="M15" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N15" s="13"/>
       <c r="O15" s="13"/>
@@ -3894,7 +3894,7 @@
       <c r="S15" s="24"/>
       <c r="V15" s="22"/>
       <c r="W15" s="23" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="X15" s="13"/>
       <c r="Y15" s="13"/>
@@ -3903,13 +3903,13 @@
       <c r="AB15" s="13"/>
       <c r="AC15" s="24"/>
       <c r="AQ15" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="L16" s="22"/>
       <c r="M16" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="N16" s="13"/>
       <c r="O16" s="13"/>
@@ -3919,7 +3919,7 @@
       <c r="S16" s="24"/>
       <c r="V16" s="22"/>
       <c r="W16" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="X16" s="13"/>
       <c r="Y16" s="13"/>
@@ -3928,13 +3928,13 @@
       <c r="AB16" s="13"/>
       <c r="AC16" s="24"/>
       <c r="AQ16" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L17" s="22"/>
       <c r="M17" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N17" s="13"/>
       <c r="O17" s="13"/>
@@ -3951,7 +3951,7 @@
       <c r="AB17" s="13"/>
       <c r="AC17" s="24"/>
       <c r="AQ17" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.25">
@@ -3970,7 +3970,7 @@
       <c r="I18" s="10"/>
       <c r="L18" s="22"/>
       <c r="M18" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N18" s="13"/>
       <c r="O18" s="13"/>
@@ -3989,7 +3989,7 @@
       <c r="AB18" s="31"/>
       <c r="AC18" s="32"/>
       <c r="AQ18" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.25">
@@ -4005,7 +4005,7 @@
       <c r="I19" s="24"/>
       <c r="L19" s="22"/>
       <c r="M19" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N19" s="13"/>
       <c r="O19" s="13"/>
@@ -4015,7 +4015,7 @@
       <c r="S19" s="24"/>
       <c r="V19" s="22"/>
       <c r="W19" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="X19" s="13"/>
       <c r="Y19" s="13"/>
@@ -4024,13 +4024,13 @@
       <c r="AB19" s="13"/>
       <c r="AC19" s="24"/>
       <c r="AQ19" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="22"/>
       <c r="C20" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
@@ -4040,7 +4040,7 @@
       <c r="I20" s="24"/>
       <c r="L20" s="22"/>
       <c r="M20" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="N20" s="13"/>
       <c r="O20" s="13"/>
@@ -4057,13 +4057,13 @@
       <c r="AB20" s="18"/>
       <c r="AC20" s="28"/>
       <c r="AQ20" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B21" s="22"/>
       <c r="C21" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
@@ -4073,7 +4073,7 @@
       <c r="I21" s="24"/>
       <c r="L21" s="22"/>
       <c r="M21" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N21" s="13"/>
       <c r="O21" s="13"/>
@@ -4082,7 +4082,7 @@
       <c r="R21" s="13"/>
       <c r="S21" s="24"/>
       <c r="AQ21" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.25">
@@ -4098,7 +4098,7 @@
       <c r="I22" s="24"/>
       <c r="L22" s="22"/>
       <c r="M22" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="N22" s="13"/>
       <c r="O22" s="13"/>
@@ -4107,7 +4107,7 @@
       <c r="R22" s="13"/>
       <c r="S22" s="24"/>
       <c r="AQ22" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4124,7 +4124,7 @@
       <c r="I23" s="24"/>
       <c r="L23" s="22"/>
       <c r="M23" s="12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N23" s="13"/>
       <c r="O23" s="13"/>
@@ -4133,7 +4133,7 @@
       <c r="R23" s="13"/>
       <c r="S23" s="24"/>
       <c r="AQ23" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4147,7 +4147,7 @@
       <c r="I24" s="26"/>
       <c r="L24" s="22"/>
       <c r="M24" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N24" s="13"/>
       <c r="O24" s="13"/>
@@ -4156,7 +4156,7 @@
       <c r="R24" s="13"/>
       <c r="S24" s="24"/>
       <c r="AQ24" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4172,7 +4172,7 @@
       <c r="I25" s="24"/>
       <c r="L25" s="22"/>
       <c r="M25" s="29" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="N25" s="13"/>
       <c r="O25" s="13"/>
@@ -4181,7 +4181,7 @@
       <c r="R25" s="13"/>
       <c r="S25" s="24"/>
       <c r="AQ25" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:43" x14ac:dyDescent="0.25">
@@ -4197,7 +4197,7 @@
       <c r="I26" s="24"/>
       <c r="L26" s="22"/>
       <c r="M26" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N26" s="13"/>
       <c r="O26" s="13"/>
@@ -4206,7 +4206,7 @@
       <c r="R26" s="13"/>
       <c r="S26" s="24"/>
       <c r="AQ26" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4229,7 +4229,7 @@
       <c r="R27" s="18"/>
       <c r="S27" s="28"/>
       <c r="AQ27" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:43" x14ac:dyDescent="0.25">
@@ -4244,7 +4244,7 @@
       <c r="H28" s="13"/>
       <c r="I28" s="24"/>
       <c r="AQ28" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4260,13 +4260,13 @@
       <c r="H29" s="13"/>
       <c r="I29" s="24"/>
       <c r="AQ29" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B30" s="22"/>
       <c r="C30" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
@@ -4275,7 +4275,7 @@
       <c r="H30" s="13"/>
       <c r="I30" s="24"/>
       <c r="L30" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
@@ -4285,7 +4285,7 @@
       <c r="R30" s="9"/>
       <c r="S30" s="10"/>
       <c r="AQ30" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4308,13 +4308,13 @@
       <c r="R31" s="13"/>
       <c r="S31" s="24"/>
       <c r="AQ31" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.25">
       <c r="L32" s="22"/>
       <c r="M32" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N32" s="13"/>
       <c r="O32" s="13"/>
@@ -4323,13 +4323,13 @@
       <c r="R32" s="13"/>
       <c r="S32" s="24"/>
       <c r="AQ32" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L33" s="22"/>
       <c r="M33" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N33" s="13"/>
       <c r="O33" s="13"/>
@@ -4338,7 +4338,7 @@
       <c r="R33" s="13"/>
       <c r="S33" s="24"/>
       <c r="AQ33" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:43" x14ac:dyDescent="0.25">
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>65</v>
+        <v>159</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -4357,7 +4357,7 @@
       <c r="I34" s="10"/>
       <c r="L34" s="22"/>
       <c r="M34" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N34" s="13"/>
       <c r="O34" s="13"/>
@@ -4366,7 +4366,7 @@
       <c r="R34" s="13"/>
       <c r="S34" s="24"/>
       <c r="AQ34" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:43" x14ac:dyDescent="0.25">
@@ -4382,7 +4382,7 @@
       <c r="I35" s="24"/>
       <c r="L35" s="22"/>
       <c r="M35" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N35" s="13"/>
       <c r="O35" s="13"/>
@@ -4391,13 +4391,13 @@
       <c r="R35" s="13"/>
       <c r="S35" s="24"/>
       <c r="AQ35" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B36" s="22"/>
       <c r="C36" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="13"/>
@@ -4414,13 +4414,13 @@
       <c r="R36" s="16"/>
       <c r="S36" s="26"/>
       <c r="AQ36" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B37" s="22"/>
       <c r="C37" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="13"/>
@@ -4439,7 +4439,7 @@
       <c r="R37" s="13"/>
       <c r="S37" s="24"/>
       <c r="AQ37" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:43" x14ac:dyDescent="0.25">
@@ -4455,7 +4455,7 @@
       <c r="I38" s="24"/>
       <c r="L38" s="22"/>
       <c r="M38" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N38" s="13"/>
       <c r="O38" s="13"/>
@@ -4464,13 +4464,13 @@
       <c r="R38" s="13"/>
       <c r="S38" s="24"/>
       <c r="AQ38" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="22"/>
       <c r="C39" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D39" s="13"/>
       <c r="E39" s="13"/>
@@ -4487,13 +4487,13 @@
       <c r="R39" s="18"/>
       <c r="S39" s="28"/>
       <c r="AQ39" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="22"/>
       <c r="C40" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
@@ -4502,7 +4502,7 @@
       <c r="H40" s="13"/>
       <c r="I40" s="24"/>
       <c r="AQ40" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:43" x14ac:dyDescent="0.25">
@@ -4515,7 +4515,7 @@
       <c r="H41" s="16"/>
       <c r="I41" s="26"/>
       <c r="L41" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M41" s="9"/>
       <c r="N41" s="9"/>
@@ -4525,7 +4525,7 @@
       <c r="R41" s="9"/>
       <c r="S41" s="10"/>
       <c r="AQ41" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:43" x14ac:dyDescent="0.25">
@@ -4550,7 +4550,7 @@
       <c r="R42" s="13"/>
       <c r="S42" s="24"/>
       <c r="AQ42" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:43" x14ac:dyDescent="0.25">
@@ -4566,7 +4566,7 @@
       <c r="I43" s="24"/>
       <c r="L43" s="22"/>
       <c r="M43" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N43" s="13"/>
       <c r="O43" s="13"/>
@@ -4575,7 +4575,7 @@
       <c r="R43" s="13"/>
       <c r="S43" s="24"/>
       <c r="AQ43" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:43" x14ac:dyDescent="0.25">
@@ -4592,7 +4592,7 @@
       <c r="I44" s="24"/>
       <c r="L44" s="22"/>
       <c r="M44" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N44" s="13"/>
       <c r="O44" s="13"/>
@@ -4601,13 +4601,13 @@
       <c r="R44" s="13"/>
       <c r="S44" s="24"/>
       <c r="AQ44" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B45" s="22"/>
       <c r="C45" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="13"/>
@@ -4617,7 +4617,7 @@
       <c r="I45" s="24"/>
       <c r="L45" s="22"/>
       <c r="M45" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N45" s="13"/>
       <c r="O45" s="13"/>
@@ -4626,7 +4626,7 @@
       <c r="R45" s="13"/>
       <c r="S45" s="24"/>
       <c r="AQ45" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:43" x14ac:dyDescent="0.25">
@@ -4643,7 +4643,7 @@
       <c r="I46" s="24"/>
       <c r="L46" s="22"/>
       <c r="M46" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N46" s="13"/>
       <c r="O46" s="13"/>
@@ -4652,13 +4652,13 @@
       <c r="R46" s="13"/>
       <c r="S46" s="24"/>
       <c r="AQ46" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B47" s="22"/>
       <c r="C47" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D47" s="13"/>
       <c r="E47" s="13"/>
@@ -4668,7 +4668,7 @@
       <c r="I47" s="24"/>
       <c r="L47" s="22"/>
       <c r="M47" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N47" s="13"/>
       <c r="O47" s="13"/>
@@ -4677,7 +4677,7 @@
       <c r="R47" s="13"/>
       <c r="S47" s="24"/>
       <c r="AQ47" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4691,7 +4691,7 @@
       <c r="I48" s="28"/>
       <c r="L48" s="22"/>
       <c r="M48" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N48" s="13"/>
       <c r="O48" s="13"/>
@@ -4700,13 +4700,13 @@
       <c r="R48" s="13"/>
       <c r="S48" s="24"/>
       <c r="AQ48" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="12:43" x14ac:dyDescent="0.25">
       <c r="L49" s="22"/>
       <c r="M49" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N49" s="13"/>
       <c r="O49" s="13"/>
@@ -4715,7 +4715,7 @@
       <c r="R49" s="13"/>
       <c r="S49" s="24"/>
       <c r="AQ49" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="12:43" x14ac:dyDescent="0.25">
@@ -4728,7 +4728,7 @@
       <c r="R50" s="16"/>
       <c r="S50" s="26"/>
       <c r="AQ50" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="12:43" x14ac:dyDescent="0.25">
@@ -4743,13 +4743,13 @@
       <c r="R51" s="13"/>
       <c r="S51" s="24"/>
       <c r="AQ51" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="12:43" x14ac:dyDescent="0.25">
       <c r="L52" s="22"/>
       <c r="M52" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N52" s="13"/>
       <c r="O52" s="13"/>
@@ -4758,13 +4758,13 @@
       <c r="R52" s="13"/>
       <c r="S52" s="24"/>
       <c r="AQ52" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" spans="12:43" x14ac:dyDescent="0.25">
       <c r="L53" s="22"/>
       <c r="M53" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N53" s="13"/>
       <c r="O53" s="13"/>
@@ -4773,7 +4773,7 @@
       <c r="R53" s="13"/>
       <c r="S53" s="24"/>
       <c r="AQ53" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" spans="12:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4786,13 +4786,13 @@
       <c r="R54" s="18"/>
       <c r="S54" s="28"/>
       <c r="AQ54" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55" spans="12:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M55" s="2"/>
       <c r="AQ55" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="12:43" x14ac:dyDescent="0.25">
@@ -4807,7 +4807,7 @@
       <c r="R56" s="9"/>
       <c r="S56" s="10"/>
       <c r="AQ56" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="12:43" x14ac:dyDescent="0.25">
@@ -4822,13 +4822,13 @@
       <c r="R57" s="13"/>
       <c r="S57" s="24"/>
       <c r="AQ57" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="12:43" x14ac:dyDescent="0.25">
       <c r="L58" s="22"/>
       <c r="M58" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N58" s="13"/>
       <c r="O58" s="13"/>
@@ -4837,13 +4837,13 @@
       <c r="R58" s="13"/>
       <c r="S58" s="24"/>
       <c r="AQ58" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="12:43" x14ac:dyDescent="0.25">
       <c r="L59" s="22"/>
       <c r="M59" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N59" s="13"/>
       <c r="O59" s="13"/>
@@ -4852,7 +4852,7 @@
       <c r="R59" s="13"/>
       <c r="S59" s="24"/>
       <c r="AQ59" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="12:43" x14ac:dyDescent="0.25">
@@ -4865,7 +4865,7 @@
       <c r="R60" s="16"/>
       <c r="S60" s="26"/>
       <c r="AQ60" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="12:43" x14ac:dyDescent="0.25">
@@ -4880,13 +4880,13 @@
       <c r="R61" s="13"/>
       <c r="S61" s="24"/>
       <c r="AQ61" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="12:43" x14ac:dyDescent="0.25">
       <c r="L62" s="22"/>
       <c r="M62" s="34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N62" s="13"/>
       <c r="O62" s="13"/>
@@ -4895,7 +4895,7 @@
       <c r="R62" s="13"/>
       <c r="S62" s="24"/>
       <c r="AQ62" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="12:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4908,12 +4908,12 @@
       <c r="R63" s="18"/>
       <c r="S63" s="28"/>
       <c r="AQ63" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="12:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AQ64" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="12:43" x14ac:dyDescent="0.25">
@@ -4928,13 +4928,13 @@
       <c r="R65" s="9"/>
       <c r="S65" s="10"/>
       <c r="AQ65" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="12:43" x14ac:dyDescent="0.25">
       <c r="L66" s="22"/>
       <c r="M66" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N66" s="13"/>
       <c r="O66" s="13"/>
@@ -4943,7 +4943,7 @@
       <c r="R66" s="13"/>
       <c r="S66" s="24"/>
       <c r="AQ66" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67" spans="12:43" x14ac:dyDescent="0.25">
@@ -4959,7 +4959,7 @@
       <c r="R67" s="13"/>
       <c r="S67" s="24"/>
       <c r="AQ67" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68" spans="12:43" x14ac:dyDescent="0.25">
@@ -4975,13 +4975,13 @@
       <c r="R68" s="13"/>
       <c r="S68" s="24"/>
       <c r="AQ68" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="69" spans="12:43" x14ac:dyDescent="0.25">
       <c r="L69" s="22"/>
       <c r="M69" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N69" s="13"/>
       <c r="O69" s="13"/>
@@ -4990,7 +4990,7 @@
       <c r="R69" s="13"/>
       <c r="S69" s="24"/>
       <c r="AQ69" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="70" spans="12:43" x14ac:dyDescent="0.25">
@@ -5003,13 +5003,13 @@
       <c r="R70" s="13"/>
       <c r="S70" s="24"/>
       <c r="AQ70" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="71" spans="12:43" x14ac:dyDescent="0.25">
       <c r="L71" s="22"/>
       <c r="M71" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N71" s="13"/>
       <c r="O71" s="13"/>
@@ -5018,13 +5018,13 @@
       <c r="R71" s="13"/>
       <c r="S71" s="24"/>
       <c r="AQ71" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="72" spans="12:43" x14ac:dyDescent="0.25">
       <c r="L72" s="22"/>
       <c r="M72" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N72" s="13"/>
       <c r="O72" s="13"/>
@@ -5033,7 +5033,7 @@
       <c r="R72" s="13"/>
       <c r="S72" s="24"/>
       <c r="AQ72" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73" spans="12:43" x14ac:dyDescent="0.25">
@@ -5046,7 +5046,7 @@
       <c r="R73" s="16"/>
       <c r="S73" s="26"/>
       <c r="AQ73" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="74" spans="12:43" x14ac:dyDescent="0.25">
@@ -5061,13 +5061,13 @@
       <c r="R74" s="13"/>
       <c r="S74" s="24"/>
       <c r="AQ74" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="12:43" x14ac:dyDescent="0.25">
       <c r="L75" s="22"/>
       <c r="M75" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N75" s="13"/>
       <c r="O75" s="13"/>
@@ -5076,7 +5076,7 @@
       <c r="R75" s="13"/>
       <c r="S75" s="24"/>
       <c r="AQ75" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76" spans="12:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5089,17 +5089,17 @@
       <c r="R76" s="18"/>
       <c r="S76" s="28"/>
       <c r="AQ76" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="12:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AQ77" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78" spans="12:43" x14ac:dyDescent="0.25">
       <c r="L78" s="35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M78" s="36"/>
       <c r="N78" s="36"/>
@@ -5109,13 +5109,13 @@
       <c r="R78" s="36"/>
       <c r="S78" s="37"/>
       <c r="AQ78" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79" spans="12:43" x14ac:dyDescent="0.25">
       <c r="L79" s="22"/>
       <c r="M79" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N79" s="13"/>
       <c r="O79" s="13"/>
@@ -5124,13 +5124,13 @@
       <c r="R79" s="13"/>
       <c r="S79" s="24"/>
       <c r="AQ79" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80" spans="12:43" x14ac:dyDescent="0.25">
       <c r="L80" s="22"/>
       <c r="M80" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N80" s="13"/>
       <c r="O80" s="13"/>
@@ -5139,13 +5139,13 @@
       <c r="R80" s="13"/>
       <c r="S80" s="24"/>
       <c r="AQ80" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="81" spans="12:43" x14ac:dyDescent="0.25">
       <c r="L81" s="22"/>
       <c r="M81" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N81" s="13"/>
       <c r="O81" s="13"/>
@@ -5154,7 +5154,7 @@
       <c r="R81" s="13"/>
       <c r="S81" s="24"/>
       <c r="AQ81" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="82" spans="12:43" x14ac:dyDescent="0.25">
@@ -5170,7 +5170,7 @@
       <c r="R82" s="13"/>
       <c r="S82" s="24"/>
       <c r="AQ82" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="83" spans="12:43" x14ac:dyDescent="0.25">
@@ -5186,7 +5186,7 @@
       <c r="R83" s="13"/>
       <c r="S83" s="24"/>
       <c r="AQ83" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="84" spans="12:43" x14ac:dyDescent="0.25">
@@ -5199,13 +5199,13 @@
       <c r="R84" s="13"/>
       <c r="S84" s="24"/>
       <c r="AQ84" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="85" spans="12:43" x14ac:dyDescent="0.25">
       <c r="L85" s="22"/>
       <c r="M85" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N85" s="13"/>
       <c r="O85" s="13"/>
@@ -5214,13 +5214,13 @@
       <c r="R85" s="13"/>
       <c r="S85" s="24"/>
       <c r="AQ85" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="86" spans="12:43" x14ac:dyDescent="0.25">
       <c r="L86" s="22"/>
       <c r="M86" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="N86" s="13"/>
       <c r="O86" s="13"/>
@@ -5229,13 +5229,13 @@
       <c r="R86" s="13"/>
       <c r="S86" s="24"/>
       <c r="AQ86" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="87" spans="12:43" x14ac:dyDescent="0.25">
       <c r="L87" s="22"/>
       <c r="M87" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N87" s="13"/>
       <c r="O87" s="13"/>
@@ -5244,13 +5244,13 @@
       <c r="R87" s="13"/>
       <c r="S87" s="24"/>
       <c r="AQ87" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="88" spans="12:43" x14ac:dyDescent="0.25">
       <c r="L88" s="22"/>
       <c r="M88" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N88" s="13"/>
       <c r="O88" s="13"/>
@@ -5259,13 +5259,13 @@
       <c r="R88" s="13"/>
       <c r="S88" s="24"/>
       <c r="AQ88" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="89" spans="12:43" x14ac:dyDescent="0.25">
       <c r="L89" s="22"/>
       <c r="M89" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N89" s="13"/>
       <c r="O89" s="13"/>
@@ -5274,7 +5274,7 @@
       <c r="R89" s="13"/>
       <c r="S89" s="24"/>
       <c r="AQ89" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="90" spans="12:43" x14ac:dyDescent="0.25">
@@ -5287,7 +5287,7 @@
       <c r="R90" s="13"/>
       <c r="S90" s="24"/>
       <c r="AQ90" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="91" spans="12:43" x14ac:dyDescent="0.25">
@@ -5302,13 +5302,13 @@
       <c r="R91" s="13"/>
       <c r="S91" s="24"/>
       <c r="AQ91" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="92" spans="12:43" x14ac:dyDescent="0.25">
       <c r="L92" s="38"/>
       <c r="M92" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N92" s="13"/>
       <c r="O92" s="13"/>
@@ -5317,7 +5317,7 @@
       <c r="R92" s="13"/>
       <c r="S92" s="24"/>
       <c r="AQ92" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="93" spans="12:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5330,18 +5330,18 @@
       <c r="R93" s="18"/>
       <c r="S93" s="28"/>
       <c r="AQ93" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="94" spans="12:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P94" s="12"/>
       <c r="AQ94" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="95" spans="12:43" x14ac:dyDescent="0.25">
       <c r="L95" s="35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M95" s="36"/>
       <c r="N95" s="36"/>
@@ -5351,13 +5351,13 @@
       <c r="R95" s="36"/>
       <c r="S95" s="37"/>
       <c r="AQ95" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="96" spans="12:43" x14ac:dyDescent="0.25">
       <c r="L96" s="22"/>
       <c r="M96" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N96" s="13"/>
       <c r="O96" s="13"/>
@@ -5366,7 +5366,7 @@
       <c r="R96" s="13"/>
       <c r="S96" s="24"/>
       <c r="AQ96" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="97" spans="12:43" x14ac:dyDescent="0.25">
@@ -5382,13 +5382,13 @@
       <c r="R97" s="13"/>
       <c r="S97" s="24"/>
       <c r="AQ97" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="98" spans="12:43" x14ac:dyDescent="0.25">
       <c r="L98" s="22"/>
       <c r="M98" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N98" s="13"/>
       <c r="O98" s="13"/>
@@ -5397,13 +5397,13 @@
       <c r="R98" s="13"/>
       <c r="S98" s="24"/>
       <c r="AQ98" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="99" spans="12:43" x14ac:dyDescent="0.25">
       <c r="L99" s="22"/>
       <c r="M99" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N99" s="13"/>
       <c r="O99" s="13"/>
@@ -5412,7 +5412,7 @@
       <c r="R99" s="13"/>
       <c r="S99" s="24"/>
       <c r="AQ99" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="100" spans="12:43" x14ac:dyDescent="0.25">
@@ -5428,7 +5428,7 @@
       <c r="R100" s="13"/>
       <c r="S100" s="24"/>
       <c r="AQ100" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="101" spans="12:43" x14ac:dyDescent="0.25">
@@ -5444,7 +5444,7 @@
       <c r="R101" s="13"/>
       <c r="S101" s="24"/>
       <c r="AQ101" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="102" spans="12:43" x14ac:dyDescent="0.25">
@@ -5457,13 +5457,13 @@
       <c r="R102" s="13"/>
       <c r="S102" s="24"/>
       <c r="AQ102" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="103" spans="12:43" x14ac:dyDescent="0.25">
       <c r="L103" s="22"/>
       <c r="M103" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N103" s="13"/>
       <c r="O103" s="13"/>
@@ -5472,13 +5472,13 @@
       <c r="R103" s="13"/>
       <c r="S103" s="24"/>
       <c r="AQ103" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="104" spans="12:43" x14ac:dyDescent="0.25">
       <c r="L104" s="22"/>
       <c r="M104" s="34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N104" s="13"/>
       <c r="O104" s="13"/>
@@ -5487,13 +5487,13 @@
       <c r="R104" s="13"/>
       <c r="S104" s="24"/>
       <c r="AQ104" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="105" spans="12:43" x14ac:dyDescent="0.25">
       <c r="L105" s="22"/>
       <c r="M105" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N105" s="13"/>
       <c r="O105" s="13"/>
@@ -5502,13 +5502,13 @@
       <c r="R105" s="13"/>
       <c r="S105" s="24"/>
       <c r="AQ105" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="106" spans="12:43" x14ac:dyDescent="0.25">
       <c r="L106" s="22"/>
       <c r="M106" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N106" s="13"/>
       <c r="O106" s="13"/>
@@ -5517,13 +5517,13 @@
       <c r="R106" s="13"/>
       <c r="S106" s="24"/>
       <c r="AQ106" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="107" spans="12:43" x14ac:dyDescent="0.25">
       <c r="L107" s="22"/>
       <c r="M107" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N107" s="13"/>
       <c r="O107" s="13"/>
@@ -5532,7 +5532,7 @@
       <c r="R107" s="13"/>
       <c r="S107" s="24"/>
       <c r="AQ107" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="108" spans="12:43" x14ac:dyDescent="0.25">
@@ -5545,7 +5545,7 @@
       <c r="R108" s="13"/>
       <c r="S108" s="24"/>
       <c r="AQ108" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="109" spans="12:43" x14ac:dyDescent="0.25">
@@ -5558,7 +5558,7 @@
       <c r="R109" s="16"/>
       <c r="S109" s="26"/>
       <c r="AQ109" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="110" spans="12:43" x14ac:dyDescent="0.25">
@@ -5573,13 +5573,13 @@
       <c r="R110" s="13"/>
       <c r="S110" s="24"/>
       <c r="AQ110" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="111" spans="12:43" x14ac:dyDescent="0.25">
       <c r="L111" s="22"/>
       <c r="M111" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N111" s="13"/>
       <c r="O111" s="13"/>
@@ -5588,13 +5588,13 @@
       <c r="R111" s="13"/>
       <c r="S111" s="24"/>
       <c r="AQ111" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="112" spans="12:43" x14ac:dyDescent="0.25">
       <c r="L112" s="22"/>
       <c r="M112" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="N112" s="13"/>
       <c r="O112" s="13"/>
@@ -5603,7 +5603,7 @@
       <c r="R112" s="13"/>
       <c r="S112" s="24"/>
       <c r="AQ112" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="113" spans="12:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5616,18 +5616,18 @@
       <c r="R113" s="18"/>
       <c r="S113" s="28"/>
       <c r="AQ113" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="114" spans="12:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P114" s="12"/>
       <c r="AQ114" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="115" spans="12:43" x14ac:dyDescent="0.25">
       <c r="L115" s="35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M115" s="36"/>
       <c r="N115" s="36"/>
@@ -5637,7 +5637,7 @@
       <c r="R115" s="36"/>
       <c r="S115" s="37"/>
       <c r="AQ115" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="116" spans="12:43" x14ac:dyDescent="0.25">
@@ -5652,13 +5652,13 @@
       <c r="R116" s="13"/>
       <c r="S116" s="24"/>
       <c r="AQ116" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="117" spans="12:43" x14ac:dyDescent="0.25">
       <c r="L117" s="22"/>
       <c r="M117" s="12" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="N117" s="13"/>
       <c r="O117" s="13"/>
@@ -5667,13 +5667,13 @@
       <c r="R117" s="13"/>
       <c r="S117" s="24"/>
       <c r="AQ117" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="118" spans="12:43" x14ac:dyDescent="0.25">
       <c r="L118" s="22"/>
       <c r="M118" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N118" s="13"/>
       <c r="O118" s="13"/>
@@ -5682,13 +5682,13 @@
       <c r="R118" s="13"/>
       <c r="S118" s="24"/>
       <c r="AQ118" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="119" spans="12:43" x14ac:dyDescent="0.25">
       <c r="L119" s="22"/>
       <c r="M119" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N119" s="13"/>
       <c r="O119" s="13"/>
@@ -5697,13 +5697,13 @@
       <c r="R119" s="13"/>
       <c r="S119" s="24"/>
       <c r="AQ119" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="120" spans="12:43" x14ac:dyDescent="0.25">
       <c r="L120" s="22"/>
       <c r="M120" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N120" s="13"/>
       <c r="O120" s="13"/>
@@ -5712,13 +5712,13 @@
       <c r="R120" s="13"/>
       <c r="S120" s="24"/>
       <c r="AQ120" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="121" spans="12:43" x14ac:dyDescent="0.25">
       <c r="L121" s="22"/>
       <c r="M121" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N121" s="13"/>
       <c r="O121" s="13"/>
@@ -5727,13 +5727,13 @@
       <c r="R121" s="13"/>
       <c r="S121" s="24"/>
       <c r="AQ121" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="122" spans="12:43" x14ac:dyDescent="0.25">
       <c r="L122" s="22"/>
       <c r="M122" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="N122" s="13"/>
       <c r="O122" s="13"/>
@@ -5742,13 +5742,13 @@
       <c r="R122" s="13"/>
       <c r="S122" s="24"/>
       <c r="AQ122" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="123" spans="12:43" x14ac:dyDescent="0.25">
       <c r="L123" s="22"/>
       <c r="M123" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N123" s="13"/>
       <c r="O123" s="13"/>
@@ -5757,13 +5757,13 @@
       <c r="R123" s="13"/>
       <c r="S123" s="24"/>
       <c r="AQ123" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="124" spans="12:43" x14ac:dyDescent="0.25">
       <c r="L124" s="22"/>
       <c r="M124" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N124" s="13"/>
       <c r="O124" s="13"/>
@@ -5772,13 +5772,13 @@
       <c r="R124" s="13"/>
       <c r="S124" s="24"/>
       <c r="AQ124" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="125" spans="12:43" x14ac:dyDescent="0.25">
       <c r="L125" s="22"/>
       <c r="M125" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N125" s="13"/>
       <c r="O125" s="13"/>
@@ -5787,13 +5787,13 @@
       <c r="R125" s="13"/>
       <c r="S125" s="24"/>
       <c r="AQ125" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="126" spans="12:43" x14ac:dyDescent="0.25">
       <c r="L126" s="22"/>
       <c r="M126" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N126" s="13"/>
       <c r="O126" s="13"/>
@@ -5802,13 +5802,13 @@
       <c r="R126" s="13"/>
       <c r="S126" s="24"/>
       <c r="AQ126" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="127" spans="12:43" x14ac:dyDescent="0.25">
       <c r="L127" s="22"/>
       <c r="M127" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N127" s="13"/>
       <c r="O127" s="13"/>
@@ -5817,13 +5817,13 @@
       <c r="R127" s="13"/>
       <c r="S127" s="24"/>
       <c r="AQ127" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="128" spans="12:43" x14ac:dyDescent="0.25">
       <c r="L128" s="22"/>
       <c r="M128" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N128" s="13"/>
       <c r="O128" s="13"/>
@@ -5832,13 +5832,13 @@
       <c r="R128" s="13"/>
       <c r="S128" s="24"/>
       <c r="AQ128" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="129" spans="12:43" x14ac:dyDescent="0.25">
       <c r="L129" s="22"/>
       <c r="M129" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N129" s="13"/>
       <c r="O129" s="13"/>
@@ -5847,7 +5847,7 @@
       <c r="R129" s="13"/>
       <c r="S129" s="24"/>
       <c r="AQ129" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="130" spans="12:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5860,13 +5860,13 @@
       <c r="R130" s="18"/>
       <c r="S130" s="28"/>
       <c r="AQ130" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="131" spans="12:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P131" s="12"/>
       <c r="AQ131" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="132" spans="12:43" x14ac:dyDescent="0.25">
@@ -5881,7 +5881,7 @@
       <c r="R132" s="36"/>
       <c r="S132" s="37"/>
       <c r="AQ132" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="133" spans="12:43" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -5896,13 +5896,13 @@
       <c r="R133" s="13"/>
       <c r="S133" s="24"/>
       <c r="AQ133" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="134" spans="12:43" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="L134" s="41"/>
       <c r="M134" s="34" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="N134" s="39"/>
       <c r="O134" s="39"/>
@@ -5911,13 +5911,13 @@
       <c r="R134" s="39"/>
       <c r="S134" s="42"/>
       <c r="AQ134" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="135" spans="12:43" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L135" s="41"/>
       <c r="M135" s="34" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="N135" s="39"/>
       <c r="O135" s="39"/>
@@ -5926,13 +5926,13 @@
       <c r="R135" s="39"/>
       <c r="S135" s="42"/>
       <c r="AQ135" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="136" spans="12:43" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L136" s="41"/>
       <c r="M136" s="29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N136" s="39"/>
       <c r="O136" s="39"/>
@@ -5941,13 +5941,13 @@
       <c r="R136" s="39"/>
       <c r="S136" s="42"/>
       <c r="AQ136" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="137" spans="12:43" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="L137" s="41"/>
       <c r="M137" s="29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N137" s="39"/>
       <c r="O137" s="39"/>
@@ -5956,7 +5956,7 @@
       <c r="R137" s="39"/>
       <c r="S137" s="42"/>
       <c r="AQ137" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="138" spans="12:43" x14ac:dyDescent="0.25">
@@ -5969,7 +5969,7 @@
       <c r="R138" s="44"/>
       <c r="S138" s="45"/>
       <c r="AQ138" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="139" spans="12:43" x14ac:dyDescent="0.25">
@@ -5984,7 +5984,7 @@
       <c r="R139" s="13"/>
       <c r="S139" s="24"/>
       <c r="AQ139" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="140" spans="12:43" x14ac:dyDescent="0.25">
@@ -5999,7 +5999,7 @@
       <c r="R140" s="13"/>
       <c r="S140" s="24"/>
       <c r="AQ140" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="141" spans="12:43" x14ac:dyDescent="0.25">
@@ -6014,7 +6014,7 @@
       <c r="R141" s="13"/>
       <c r="S141" s="24"/>
       <c r="AQ141" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="142" spans="12:43" x14ac:dyDescent="0.25">
@@ -6029,13 +6029,13 @@
       <c r="R142" s="13"/>
       <c r="S142" s="24"/>
       <c r="AQ142" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="143" spans="12:43" x14ac:dyDescent="0.25">
       <c r="L143" s="22"/>
       <c r="M143" s="12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="N143" s="13"/>
       <c r="O143" s="13"/>
@@ -6044,7 +6044,7 @@
       <c r="R143" s="13"/>
       <c r="S143" s="24"/>
       <c r="AQ143" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="144" spans="12:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6057,147 +6057,148 @@
       <c r="R144" s="18"/>
       <c r="S144" s="28"/>
       <c r="AQ144" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="145" spans="1:43" x14ac:dyDescent="0.25">
       <c r="AQ145" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="146" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A146" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B146" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C146" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D146" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E146" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F146" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G146" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H146" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I146" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J146" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K146" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L146" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M146" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N146" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O146" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P146" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q146" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R146" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S146" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="T146" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U146" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="V146" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="W146" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="X146" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Y146" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z146" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AA146" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AB146" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AC146" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AD146" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AE146" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AF146" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AG146" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH146" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AI146" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AJ146" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AK146" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AL146" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AM146" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AN146" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AO146" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AP146" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AQ146" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
